--- a/dossier/timesheet.xlsx
+++ b/dossier/timesheet.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Google Drive\School\3de jaar\Semester 1\nmdad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonatanmoerman/Code/1617.nmdad1.gitnotes/dossier/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14800"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>datum</t>
   </si>
@@ -50,13 +56,31 @@
     <t>Opmaak van het dossier en briefing + ideebord</t>
   </si>
   <si>
-    <t>1uur</t>
+    <t>Moodboard</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>jonatan</t>
+  </si>
+  <si>
+    <t>Aanvullen dossier (wireframes - moodboard - briefing - sitemap)</t>
+  </si>
+  <si>
+    <t>Aanvullen poster</t>
+  </si>
+  <si>
+    <t>totaal</t>
+  </si>
+  <si>
+    <t>Opmaak presentatie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +115,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,19 +427,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42655</v>
       </c>
@@ -445,8 +470,102 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42669</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42669</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42670</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42670</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42670</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E2:E31)</f>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
